--- a/data/trans_dic/P15D$urgencias-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4903060225235456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6954569280885042</v>
+        <v>0.6954569280885039</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.687376705345605</v>
@@ -685,7 +685,7 @@
         <v>0.6363370227663044</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6840355587786209</v>
+        <v>0.684035558778621</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4691047694659067</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09320788176034313</v>
+        <v>0.0932022856118786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4199539587472647</v>
+        <v>0.3952351104701891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2641361693064512</v>
+        <v>0.2509763279880837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5222073462077241</v>
+        <v>0.5051865316319316</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1596149887412512</v>
+        <v>0.1773629520053522</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4962334158071534</v>
+        <v>0.514422139432813</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4377563029903369</v>
+        <v>0.4602027534048367</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5568297986215346</v>
+        <v>0.5568385701367471</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2239226039264381</v>
+        <v>0.2378988640467074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5040681228462301</v>
+        <v>0.5063297928501863</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4284874932024076</v>
+        <v>0.4301381256338598</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5849689190586066</v>
+        <v>0.5879056956885167</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6946154716492494</v>
+        <v>0.6917026891585651</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7447640650885283</v>
+        <v>0.7223789586148335</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7224583644838978</v>
+        <v>0.7084259224402975</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8603918888110831</v>
+        <v>0.8460760371092942</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8507832655052445</v>
+        <v>0.8524143326892771</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8152801675372289</v>
+        <v>0.820412444702704</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7917776687417956</v>
+        <v>0.7854444933203306</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7126674268954942</v>
+        <v>0.7316597150256002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7553484060384147</v>
+        <v>0.7493532242181409</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7334259328738567</v>
+        <v>0.7156041183939498</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7879586596636989</v>
+        <v>0.7940820359295306</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7862129410254001</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3813545363347268</v>
+        <v>0.3813545363347269</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7816748199096063</v>
@@ -821,7 +821,7 @@
         <v>0.5796594416314628</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3741179836820817</v>
+        <v>0.3741179836820818</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5924804499697656</v>
@@ -833,7 +833,7 @@
         <v>0.6932874599413208</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3771258390582254</v>
+        <v>0.3771258390582253</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08972520268577111</v>
+        <v>0.1008932945023369</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4704003387408788</v>
+        <v>0.4797556896604461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5670762607210925</v>
+        <v>0.5582086366679374</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1611079852863773</v>
+        <v>0.1821487293555009</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4260776786058895</v>
+        <v>0.4373735252369372</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4712294066205357</v>
+        <v>0.4638431652891757</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2901137797682432</v>
+        <v>0.2794795978251734</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.250077623441923</v>
+        <v>0.2373067615110849</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3215429164782773</v>
+        <v>0.3284093169116021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5511176391719189</v>
+        <v>0.5322892854376531</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5239733813040414</v>
+        <v>0.516858168749479</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.260032789838352</v>
+        <v>0.2660120087980795</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7692160123917919</v>
+        <v>0.7654420790204497</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8233831980421337</v>
+        <v>0.8270191802913195</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9466595462376947</v>
+        <v>0.9478485704843528</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.628473559565168</v>
+        <v>0.6295649156658051</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.821043103513682</v>
+        <v>0.8239015408065682</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8027797606499948</v>
+        <v>0.8029319321391651</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5281577783928503</v>
+        <v>0.5164784044838732</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8128768312686622</v>
+        <v>0.814437362848034</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7917359484384037</v>
+        <v>0.7722087802444088</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8384644059135109</v>
+        <v>0.8456018054084046</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5058461043675697</v>
+        <v>0.5074734869952621</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.661945073172973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6100307857399144</v>
+        <v>0.6100307857399146</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2680586743859227</v>
@@ -969,7 +969,7 @@
         <v>0.6586931184275284</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5201341650139613</v>
+        <v>0.5201341650139611</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3743807020061822</v>
+        <v>0.3724034668409633</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3218304209601248</v>
+        <v>0.3237559378061099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4533131640760004</v>
+        <v>0.4453197622316383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4106756829703833</v>
+        <v>0.418958910975044</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1251174147989373</v>
+        <v>0.1045703005146664</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3787530747684992</v>
+        <v>0.3580266824363987</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3012386487440722</v>
+        <v>0.3030944425077339</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3262051550964515</v>
+        <v>0.3534485145683542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2654074343233668</v>
+        <v>0.2681765921483475</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.503742353610685</v>
+        <v>0.5104260861099829</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4078306193734353</v>
+        <v>0.3987521240542956</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8499986110470713</v>
+        <v>0.8567051047254899</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5945056246194551</v>
+        <v>0.5794015812967516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8259423517279679</v>
+        <v>0.8326298502554825</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7831786116614521</v>
+        <v>0.7742740227583272</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0.7859115635506937</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3984645733091795</v>
+        <v>0.4021988942654325</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8682558659591345</v>
+        <v>0.8711881659119121</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.613315986806903</v>
+        <v>0.6172416903634029</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7740457827339049</v>
+        <v>0.7982440381342377</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4600099387100468</v>
+        <v>0.4633917073684193</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7897894480813901</v>
+        <v>0.8040721217537584</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6561091503019267</v>
+        <v>0.6415625062946255</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4044130207526057</v>
+        <v>0.3678935522864424</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6494960338634643</v>
+        <v>0.629322362566303</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4191480942022233</v>
+        <v>0.414503755061494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3279642407716011</v>
+        <v>0.3434732991530124</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1008199227721217</v>
+        <v>0.09355117570546211</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3203365394465383</v>
+        <v>0.3562128365354858</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.528299595126354</v>
+        <v>0.5147508929215001</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1913426487026035</v>
+        <v>0.1846256002583898</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3521211532533151</v>
+        <v>0.3511499401256531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5884275346445502</v>
+        <v>0.5951836518697308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5209920219870574</v>
+        <v>0.5333787587569155</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3206263183930221</v>
+        <v>0.3426268370202166</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8307159138741955</v>
+        <v>0.8016680623900088</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9315316824246359</v>
+        <v>0.9322834040911999</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7768776159488371</v>
+        <v>0.7619663932898977</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8359600324804454</v>
+        <v>0.8631495268904374</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7205327665063623</v>
+        <v>0.7206776707125556</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8081109178547453</v>
+        <v>0.8130009367870409</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8591095981509764</v>
+        <v>0.8494978753982106</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6962697731462956</v>
+        <v>0.7061702208826834</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7136219608440619</v>
+        <v>0.7166951910689145</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8562901731624547</v>
+        <v>0.8489065999436988</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7692381107075844</v>
+        <v>0.7667571120729371</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7270243491501507</v>
+        <v>0.7173512437276209</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.6506548633165633</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8019470904203481</v>
+        <v>0.801947090420348</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7876257391196437</v>
@@ -1241,7 +1241,7 @@
         <v>0.7374332597862537</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7493833492840057</v>
+        <v>0.7493833492840056</v>
       </c>
     </row>
     <row r="17">
@@ -1252,36 +1252,36 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1080002718504218</v>
+        <v>0.107365870913588</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5691653607208269</v>
+        <v>0.5921346526520783</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3685553298144251</v>
+        <v>0.3713966194747264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.381811487194239</v>
+        <v>0.4294133188083296</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3106618389991166</v>
+        <v>0.312305974437822</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4298805852635685</v>
+        <v>0.4172050634840189</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>0.296587973161727</v>
+        <v>0.3007572068076935</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5596150725106238</v>
+        <v>0.541437794485168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4533829988876217</v>
+        <v>0.4655296424818915</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.357709463442537</v>
+        <v>0.3794258194012312</v>
       </c>
     </row>
     <row r="18">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8217791119297585</v>
+        <v>0.7881410641878834</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9135012792376427</v>
+        <v>0.9123554970705408</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>1</v>
@@ -1307,21 +1307,21 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.887293332170272</v>
+        <v>0.8465685461129679</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.8327334993784521</v>
+        <v>0.8345050757916926</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8796124557073144</v>
+        <v>0.8745621820208361</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9350152555841468</v>
+        <v>0.9355718766831516</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9456202599485339</v>
+        <v>0.9507471832551389</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.6595915420372624</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3553172242372498</v>
+        <v>0.3553172242372499</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4932794577041945</v>
@@ -1380,40 +1380,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08133772022766031</v>
+        <v>0.08629916896098969</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3128576010860594</v>
+        <v>0.339996658469835</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2827867408864614</v>
+        <v>0.2884613514754751</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.151799884686611</v>
+        <v>0.1390580931391356</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3246512391568205</v>
+        <v>0.3226248436990029</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3610904604374685</v>
+        <v>0.3690873685220253</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4753507175480364</v>
+        <v>0.4519517047752414</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2385711250005174</v>
+        <v>0.2379281869139481</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.263200479042392</v>
+        <v>0.257813566412632</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.400866450839919</v>
+        <v>0.4076960895192678</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4500170191206098</v>
+        <v>0.4377774282618591</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2245569441834644</v>
+        <v>0.2351498238645211</v>
       </c>
     </row>
     <row r="21">
@@ -1424,40 +1424,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7323461838854886</v>
+        <v>0.7313218892166367</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6926806330174808</v>
+        <v>0.6967541690440383</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6371163118479897</v>
+        <v>0.6682578611795412</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4615042868734422</v>
+        <v>0.4560141164489572</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9080522840296096</v>
+        <v>0.9078749371558028</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6982020510463838</v>
+        <v>0.7102833310638459</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8051133602066031</v>
+        <v>0.8068127323421468</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4918585428873352</v>
+        <v>0.4992095911724103</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7099841613129196</v>
+        <v>0.7290085014818423</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6522229481295574</v>
+        <v>0.6568632845342243</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6894798786456562</v>
+        <v>0.6850580413957286</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4273114024390812</v>
+        <v>0.4312393786503205</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.678846005529451</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7029019848598216</v>
+        <v>0.7029019848598215</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6765983462947406</v>
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1049802463239487</v>
+        <v>0.1224252245770835</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3869520955131462</v>
+        <v>0.3892207790278916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4609435173791973</v>
+        <v>0.4668123102099409</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5419593733332891</v>
+        <v>0.544209360712693</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4190456084248869</v>
+        <v>0.4173004627070804</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4364491993415916</v>
+        <v>0.4301125519381248</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3422669900933332</v>
+        <v>0.3649060815668261</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4557561297178597</v>
+        <v>0.4594755780835382</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2969687304289099</v>
+        <v>0.3026630239602501</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4509161483533585</v>
+        <v>0.4578640579917043</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4724986129712671</v>
+        <v>0.4746172877388651</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5416047120630952</v>
+        <v>0.5435749424348095</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4736809427455868</v>
+        <v>0.4902435306173729</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6450810617219109</v>
+        <v>0.6379976838303937</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8387596428251215</v>
+        <v>0.8423609701247941</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8339383396112388</v>
+        <v>0.8290362058462171</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8561617079116782</v>
+        <v>0.8472260404148114</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6840122535974379</v>
+        <v>0.6942259545510614</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7549848794847275</v>
+        <v>0.7414213500205533</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.69035769886988</v>
+        <v>0.7046173382317803</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5873428479104357</v>
+        <v>0.5945915450892693</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6356478218447283</v>
+        <v>0.6360757341032178</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7394882732687317</v>
+        <v>0.7393863301737736</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7269895577723807</v>
+        <v>0.727120753725272</v>
       </c>
     </row>
     <row r="25">
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3862645146845504</v>
+        <v>0.3726840581465029</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3942296961111744</v>
+        <v>0.3607222807426643</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4218970006696663</v>
+        <v>0.4143528754102871</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4668437920839483</v>
+        <v>0.4784126193118298</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4983027136954748</v>
+        <v>0.4901827544528847</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4013390583669865</v>
+        <v>0.3604941549901807</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4675544693170632</v>
+        <v>0.4618665058267016</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.5044365874106845</v>
+        <v>0.5020797941327361</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.493907652131534</v>
+        <v>0.5103742454091957</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.461726460489498</v>
+        <v>0.4563951046904787</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4947867427778452</v>
+        <v>0.5039111743530227</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5347768239944326</v>
+        <v>0.5409764990886399</v>
       </c>
     </row>
     <row r="27">
@@ -1696,40 +1696,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7706631840831557</v>
+        <v>0.7652901318169297</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8194494415032414</v>
+        <v>0.7973243679225114</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.764762311463361</v>
+        <v>0.7513825033125991</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8407895233446195</v>
+        <v>0.8390989478702506</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8559690534601263</v>
+        <v>0.8456538197531968</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7981724831827651</v>
+        <v>0.7740497157011966</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8245388057392831</v>
+        <v>0.8436154758408967</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7987474716809831</v>
+        <v>0.7750839675435491</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7487126846677381</v>
+        <v>0.762370837305697</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7468544149538646</v>
+        <v>0.7543585492205342</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7530097693024467</v>
+        <v>0.7476752149756321</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7743056339393241</v>
+        <v>0.7803034090446047</v>
       </c>
     </row>
     <row r="28">
@@ -1753,7 +1753,7 @@
         <v>0.6063818797338738</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.5986508241173486</v>
+        <v>0.5986508241173487</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.6489744523220928</v>
@@ -1765,7 +1765,7 @@
         <v>0.6500861036753899</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.5173194707825806</v>
+        <v>0.5173194707825804</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.5430698463968071</v>
@@ -1777,7 +1777,7 @@
         <v>0.6277089854221737</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.5569840114204124</v>
+        <v>0.5569840114204125</v>
       </c>
     </row>
     <row r="29">
@@ -1788,40 +1788,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3768428770374856</v>
+        <v>0.371205066504221</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5212754344707771</v>
+        <v>0.523833856203814</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.524311462102766</v>
+        <v>0.5445165667130176</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5300567223033462</v>
+        <v>0.5249042444834812</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4621661712979104</v>
+        <v>0.4589487915012882</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4697622848356307</v>
+        <v>0.474900059923738</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.5255218581946692</v>
+        <v>0.5242585808434899</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.5782197415127176</v>
+        <v>0.5765086778659047</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.5084816416038828</v>
+        <v>0.5083893107531646</v>
       </c>
     </row>
     <row r="30">
@@ -1832,40 +1832,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5507816396693321</v>
+        <v>0.5538676501407658</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6434830684548101</v>
+        <v>0.6456117542444992</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6721329609166048</v>
+        <v>0.6720927707870871</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6698773122892978</v>
+        <v>0.6713859851094178</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5813431349736726</v>
+        <v>0.5726842390595484</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6118178842034363</v>
+        <v>0.615520220945219</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.6134758129920901</v>
+        <v>0.6127045430043535</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.6777400866226355</v>
+        <v>0.6770091137982209</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.5974611030245389</v>
+        <v>0.6021244847676025</v>
       </c>
     </row>
     <row r="31">
@@ -2143,37 +2143,37 @@
         <v>866</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15554</v>
+        <v>14638</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5073</v>
+        <v>4820</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14120</v>
+        <v>13660</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1131</v>
+        <v>1257</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13707</v>
+        <v>14210</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13215</v>
+        <v>13893</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>16947</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3668</v>
+        <v>3897</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>32593</v>
+        <v>32739</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21165</v>
+        <v>21246</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>33621</v>
+        <v>33789</v>
       </c>
     </row>
     <row r="7">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6456</v>
+        <v>6429</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27584</v>
+        <v>26755</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13876</v>
+        <v>13606</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23264</v>
+        <v>22877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>7088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23501</v>
+        <v>23546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24612</v>
+        <v>24767</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24098</v>
+        <v>23905</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11674</v>
+        <v>11985</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48841</v>
+        <v>48453</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>36227</v>
+        <v>35347</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>45287</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="8">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14621</v>
+        <v>14911</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11010</v>
+        <v>10838</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3980</v>
+        <v>4500</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3819</v>
+        <v>3921</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14258</v>
+        <v>14034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4606</v>
+        <v>4438</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8685</v>
+        <v>8242</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5407</v>
+        <v>5522</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33804</v>
+        <v>32650</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18493</v>
+        <v>18241</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>15455</v>
+        <v>15810</v>
       </c>
     </row>
     <row r="11">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6040</v>
+        <v>6010</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25592</v>
+        <v>25705</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18379</v>
+        <v>18402</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15525</v>
+        <v>15552</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>8964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24841</v>
+        <v>24928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12747</v>
+        <v>12749</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18343</v>
+        <v>17937</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>13669</v>
+        <v>13695</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>48563</v>
+        <v>47366</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29592</v>
+        <v>29844</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>30064</v>
+        <v>30161</v>
       </c>
     </row>
     <row r="12">
@@ -2500,40 +2500,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6825</v>
+        <v>6789</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17010</v>
+        <v>17111</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10531</v>
+        <v>10345</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9163</v>
+        <v>9347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4985</v>
+        <v>4166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5257</v>
+        <v>4970</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8045</v>
+        <v>8094</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7318</v>
+        <v>7929</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>24601</v>
+        <v>24858</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18695</v>
+        <v>18943</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19990</v>
+        <v>19545</v>
       </c>
     </row>
     <row r="15">
@@ -2544,40 +2544,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15495</v>
+        <v>15617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31421</v>
+        <v>30623</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19187</v>
+        <v>19343</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17473</v>
+        <v>17275</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>3305</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15875</v>
+        <v>16024</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12052</v>
+        <v>12093</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16379</v>
+        <v>16483</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17365</v>
+        <v>17908</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42640</v>
+        <v>42953</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>29311</v>
+        <v>29841</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>32159</v>
+        <v>31446</v>
       </c>
     </row>
     <row r="16">
@@ -2680,40 +2680,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7206</v>
+        <v>6555</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19808</v>
+        <v>19192</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16092</v>
+        <v>15914</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9214</v>
+        <v>9650</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>987</v>
+        <v>916</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5261</v>
+        <v>5850</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19215</v>
+        <v>18722</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3712</v>
+        <v>3582</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9722</v>
+        <v>9696</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>27609</v>
+        <v>27926</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38951</v>
+        <v>39877</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15228</v>
+        <v>16273</v>
       </c>
     </row>
     <row r="19">
@@ -2724,40 +2724,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14802</v>
+        <v>14284</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28409</v>
+        <v>28432</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29826</v>
+        <v>29253</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23487</v>
+        <v>24251</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7056</v>
+        <v>7058</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13272</v>
+        <v>13352</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31247</v>
+        <v>30897</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13507</v>
+        <v>13699</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>19704</v>
+        <v>19789</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40177</v>
+        <v>39831</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>57511</v>
+        <v>57325</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>34529</v>
+        <v>34070</v>
       </c>
     </row>
     <row r="20">
@@ -2860,36 +2860,36 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7497</v>
+        <v>7800</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3731</v>
+        <v>3760</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2860</v>
+        <v>3217</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2425</v>
+        <v>2438</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8511</v>
+        <v>8260</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="inlineStr"/>
       <c r="K22" s="6" t="n">
-        <v>4486</v>
+        <v>4549</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>18451</v>
+        <v>17852</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6107</v>
+        <v>6270</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2867</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="23">
@@ -2900,13 +2900,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6015</v>
+        <v>5768</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>13172</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9248</v>
+        <v>9237</v>
       </c>
       <c r="F23" s="6" t="n">
         <v>7491</v>
@@ -2915,21 +2915,21 @@
         <v>7806</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>17567</v>
+        <v>16760</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>12595</v>
+        <v>12622</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>29002</v>
+        <v>28835</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12594</v>
+        <v>12601</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>7580</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="24">
@@ -3032,40 +3032,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>723</v>
+        <v>767</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9496</v>
+        <v>10319</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7981</v>
+        <v>8142</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3950</v>
+        <v>3618</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3442</v>
+        <v>3420</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12788</v>
+        <v>13071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>17331</v>
+        <v>16478</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6711</v>
+        <v>6693</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5131</v>
+        <v>5026</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>26363</v>
+        <v>26813</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>29108</v>
+        <v>28317</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>12159</v>
+        <v>12733</v>
       </c>
     </row>
     <row r="27">
@@ -3076,40 +3076,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6513</v>
+        <v>6504</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21024</v>
+        <v>21147</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17982</v>
+        <v>18861</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12007</v>
+        <v>11865</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9627</v>
+        <v>9625</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>24727</v>
+        <v>25155</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>29354</v>
+        <v>29416</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13836</v>
+        <v>14043</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>13841</v>
+        <v>14212</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>42894</v>
+        <v>43199</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>44598</v>
+        <v>44312</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>23138</v>
+        <v>23351</v>
       </c>
     </row>
     <row r="28">
@@ -3212,40 +3212,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2864</v>
+        <v>3340</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>25061</v>
+        <v>25208</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12186</v>
+        <v>12341</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>30243</v>
+        <v>30369</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7717</v>
+        <v>7685</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>26045</v>
+        <v>25667</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9381</v>
+        <v>10001</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>26631</v>
+        <v>26849</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>13571</v>
+        <v>13832</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>56112</v>
+        <v>56977</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>25441</v>
+        <v>25555</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>61871</v>
+        <v>62096</v>
       </c>
     </row>
     <row r="31">
@@ -3256,40 +3256,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12924</v>
+        <v>13376</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>41779</v>
+        <v>41320</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>22173</v>
+        <v>22269</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>46536</v>
+        <v>46263</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>15766</v>
+        <v>15602</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>40818</v>
+        <v>41428</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20692</v>
+        <v>20320</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>40340</v>
+        <v>41173</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26842</v>
+        <v>27173</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>79100</v>
+        <v>79153</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>39816</v>
+        <v>39811</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>83048</v>
+        <v>83063</v>
       </c>
     </row>
     <row r="32">
@@ -3392,40 +3392,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>10193</v>
+        <v>9835</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9467</v>
+        <v>8662</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>14600</v>
+        <v>14339</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13801</v>
+        <v>14143</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>13421</v>
+        <v>13202</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>10159</v>
+        <v>9125</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>12501</v>
+        <v>12348</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>17062</v>
+        <v>16982</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>26336</v>
+        <v>27214</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>22775</v>
+        <v>22512</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>30351</v>
+        <v>30911</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>33897</v>
+        <v>34290</v>
       </c>
     </row>
     <row r="35">
@@ -3436,40 +3436,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>20337</v>
+        <v>20195</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>19677</v>
+        <v>19146</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>26465</v>
+        <v>26002</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>24855</v>
+        <v>24805</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>23054</v>
+        <v>22776</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>20204</v>
+        <v>19594</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>22045</v>
+        <v>22555</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>27016</v>
+        <v>26216</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>39923</v>
+        <v>40651</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>36839</v>
+        <v>37209</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>46191</v>
+        <v>45864</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>49080</v>
+        <v>49460</v>
       </c>
     </row>
     <row r="36">
@@ -3572,40 +3572,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>46381</v>
+        <v>45687</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>147922</v>
+        <v>148648</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>104670</v>
+        <v>108704</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>117155</v>
+        <v>116016</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>107306</v>
+        <v>106559</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>101883</v>
+        <v>102998</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>282790</v>
+        <v>282110</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>225448</v>
+        <v>224781</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>230445</v>
+        <v>230404</v>
       </c>
     </row>
     <row r="39">
@@ -3616,40 +3616,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>67789</v>
+        <v>68168</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>182601</v>
+        <v>183205</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>134181</v>
+        <v>134173</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>148058</v>
+        <v>148392</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>134976</v>
+        <v>132966</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>132693</v>
+        <v>133496</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>330119</v>
+        <v>329704</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>264251</v>
+        <v>263966</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>270771</v>
+        <v>272885</v>
       </c>
     </row>
     <row r="40">
